--- a/Material_plots/rubber cord/newCord.xlsx
+++ b/Material_plots/rubber cord/newCord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Ben50\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Ben50\Material_plots\rubber cord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407F9451-259C-4949-99A5-7D2444064826}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C78ECBE-05A0-4AC2-B53F-7BD4E19BFC88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12770" xr2:uid="{D7753D00-1CC0-4F73-972B-04CCE7E8D6E1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12765" xr2:uid="{D7753D00-1CC0-4F73-972B-04CCE7E8D6E1}"/>
   </bookViews>
   <sheets>
     <sheet name="stretch" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -63,7 +63,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -75,7 +75,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -430,16 +430,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA08849A-1623-4CCD-BACA-1477D1813279}">
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="M63" sqref="M44:M63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
@@ -1427,7 +1427,7 @@
         <v>856.07</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:11">
       <c r="A33" s="3">
         <v>6.3</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>879.41</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:11">
       <c r="A34" s="3">
         <v>6.4</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>1006.54</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:11">
       <c r="A35" s="3">
         <v>6.5</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>1043.01</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:11">
       <c r="A36" s="3">
         <v>6.6</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>1033.51</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:11">
       <c r="A37" s="3">
         <v>6.7</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:11">
       <c r="A38" s="3">
         <v>6.8</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:11">
       <c r="A39" s="3">
         <v>6.9</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>1054.6199999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:11">
       <c r="A40" s="3">
         <v>7</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>1098.5899999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:11">
       <c r="A41" s="3">
         <v>7.1</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>1124.4100000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:11">
       <c r="A42" s="3">
         <v>7.2</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>1129.56</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:11">
       <c r="A44" s="3">
         <v>8</v>
       </c>
@@ -1811,12 +1811,8 @@
       <c r="K44" s="3">
         <v>902.94</v>
       </c>
-      <c r="M44" s="2">
-        <f>AVERAGE(B44:K44)</f>
-        <v>838.73099999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="3">
         <v>8.1</v>
       </c>
@@ -1850,12 +1846,8 @@
       <c r="K45" s="3">
         <v>1105.6500000000001</v>
       </c>
-      <c r="M45" s="2">
-        <f t="shared" ref="M45:M60" si="0">AVERAGE(B45:K45)</f>
-        <v>967.37299999999993</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="3">
         <v>8.1999999999999993</v>
       </c>
@@ -1889,12 +1881,8 @@
       <c r="K46" s="3">
         <v>1204.01</v>
       </c>
-      <c r="M46" s="2">
-        <f t="shared" si="0"/>
-        <v>1100.0790000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="3">
         <v>8.3000000000000007</v>
       </c>
@@ -1928,12 +1916,8 @@
       <c r="K47" s="3">
         <v>1255.8599999999999</v>
       </c>
-      <c r="M47" s="2">
-        <f t="shared" si="0"/>
-        <v>1167.1310000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="3">
         <v>8.4</v>
       </c>
@@ -1967,12 +1951,8 @@
       <c r="K48" s="3">
         <v>1304.25</v>
       </c>
-      <c r="M48" s="2">
-        <f t="shared" si="0"/>
-        <v>1251.8539999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="3">
         <v>8.5</v>
       </c>
@@ -2006,12 +1986,8 @@
       <c r="K49" s="3">
         <v>1357.26</v>
       </c>
-      <c r="M49" s="2">
-        <f t="shared" si="0"/>
-        <v>1282.1779999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="3">
         <v>8.6</v>
       </c>
@@ -2045,12 +2021,8 @@
       <c r="K50" s="3">
         <v>1399.99</v>
       </c>
-      <c r="M50" s="2">
-        <f t="shared" si="0"/>
-        <v>1321.23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="3">
         <v>8.6999999999999993</v>
       </c>
@@ -2084,12 +2056,8 @@
       <c r="K51" s="3">
         <v>1439.5</v>
       </c>
-      <c r="M51" s="2">
-        <f t="shared" si="0"/>
-        <v>1349.5480000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="3">
         <v>8.8000000000000007</v>
       </c>
@@ -2123,12 +2091,8 @@
       <c r="K52" s="3">
         <v>1488.5</v>
       </c>
-      <c r="M52" s="2">
-        <f t="shared" si="0"/>
-        <v>1383.7180000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="3">
         <v>8.9</v>
       </c>
@@ -2162,12 +2126,8 @@
       <c r="K53" s="3">
         <v>1517.39</v>
       </c>
-      <c r="M53" s="2">
-        <f t="shared" si="0"/>
-        <v>1400.6429999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="3">
         <v>9</v>
       </c>
@@ -2201,12 +2161,8 @@
       <c r="K54" s="3">
         <v>1502.19</v>
       </c>
-      <c r="M54" s="2">
-        <f t="shared" si="0"/>
-        <v>1417.847</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="3">
         <v>9.1</v>
       </c>
@@ -2240,12 +2196,8 @@
       <c r="K55" s="3">
         <v>1527.68</v>
       </c>
-      <c r="M55" s="2">
-        <f t="shared" si="0"/>
-        <v>1419.6659999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="3">
         <v>9.1999999999999993</v>
       </c>
@@ -2279,12 +2231,8 @@
       <c r="K56" s="3">
         <v>1487.27</v>
       </c>
-      <c r="M56" s="2">
-        <f t="shared" si="0"/>
-        <v>1437.8610000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="3">
         <v>9.3000000000000007</v>
       </c>
@@ -2318,12 +2266,8 @@
       <c r="K57" s="3">
         <v>1517.39</v>
       </c>
-      <c r="M57" s="2">
-        <f t="shared" si="0"/>
-        <v>1441.1619999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="3">
         <v>9.4</v>
       </c>
@@ -2357,12 +2301,8 @@
       <c r="K58" s="3">
         <v>1525.09</v>
       </c>
-      <c r="M58" s="2">
-        <f t="shared" si="0"/>
-        <v>1453.0940000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="3">
         <v>9.4999999999999893</v>
       </c>
@@ -2396,12 +2336,8 @@
       <c r="K59" s="3">
         <v>1593.7</v>
       </c>
-      <c r="M59" s="2">
-        <f t="shared" si="0"/>
-        <v>1461.8120000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="3">
         <v>9.5999999999999908</v>
       </c>
@@ -2435,12 +2371,8 @@
       <c r="K60" s="3">
         <v>1589</v>
       </c>
-      <c r="M60" s="2">
-        <f t="shared" si="0"/>
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="3">
         <v>10</v>
       </c>
@@ -2475,7 +2407,7 @@
         <v>1189.22</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:11">
       <c r="A63" s="3">
         <v>10.1</v>
       </c>
@@ -2510,7 +2442,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:11">
       <c r="A64" s="3">
         <v>10.199999999999999</v>
       </c>
@@ -3327,7 +3259,7 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
@@ -3746,7 +3678,7 @@
     <row r="18" spans="2:8">
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" ht="16.5">
       <c r="B19" s="5"/>
       <c r="H19" s="7"/>
     </row>
